--- a/Symphony/2021/June/All Details/22.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/22.06.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2201,7 +2201,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3361,6 +3361,21 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="45" fillId="44" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -9656,11 +9671,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9675,6 +9685,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9688,8 +9703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -18290,19 +18305,19 @@
       <c r="CS77" s="211"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="322" t="s">
+      <c r="A78" s="405" t="s">
         <v>188</v>
       </c>
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="406" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="173" t="s">
+      <c r="C78" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="305">
+      <c r="D78" s="408">
         <v>37888</v>
       </c>
-      <c r="E78" s="253" t="s">
+      <c r="E78" s="409" t="s">
         <v>246</v>
       </c>
       <c r="F78" s="205"/>
@@ -32994,8 +33009,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -39382,7 +39397,7 @@
       </c>
       <c r="D1" s="332">
         <f ca="1">TODAY()</f>
-        <v>44369</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="2" spans="1:7">
